--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3192.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3192.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.148776857429891</v>
+        <v>1.018808245658875</v>
       </c>
       <c r="B1">
-        <v>2.060809427683973</v>
+        <v>1.919378042221069</v>
       </c>
       <c r="C1">
-        <v>6.809778895889452</v>
+        <v>2.821298122406006</v>
       </c>
       <c r="D1">
-        <v>3.73615137403771</v>
+        <v>3.443411350250244</v>
       </c>
       <c r="E1">
-        <v>1.502020451547456</v>
+        <v>2.049438714981079</v>
       </c>
     </row>
   </sheetData>
